--- a/DummyData/Program.xlsx
+++ b/DummyData/Program.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="14340" windowHeight="11325"/>
+    <workbookView windowWidth="28800" windowHeight="12585"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,37 +31,37 @@
     <t>Thales</t>
   </si>
   <si>
-    <t>Διαχείρισης Έργων Αγροδιατροφή και Βιομηχανία τροφίμων</t>
+    <t>Program Management and Monitoring</t>
   </si>
   <si>
     <t>Anaximander</t>
   </si>
   <si>
-    <t>Διαχείρισης Έργων Περιβάλλον και Βιώσιμη Ανάπτυξη</t>
+    <t>Enviromental Research and Sustainable Development</t>
   </si>
   <si>
     <t>Pythagoras</t>
   </si>
   <si>
-    <t>Σχεδιασμού και Προγραμματισμού</t>
+    <t>Design and Scheduling</t>
   </si>
   <si>
     <t>Anaxagoras</t>
   </si>
   <si>
-    <t>Σχεδιασμού Δράσεων Καινοτομίας</t>
+    <t>Innovative Actions Planning</t>
   </si>
   <si>
     <t>Hippocrates</t>
   </si>
   <si>
-    <t>Διαχείρισης και Παρακολούθησης Προγραμμάτων</t>
-  </si>
-  <si>
     <t>Eudoxus</t>
   </si>
   <si>
     <t>Aristotle</t>
+  </si>
+  <si>
+    <t>Agriculture and Food Processing</t>
   </si>
   <si>
     <t>Theophrastus</t>
@@ -138,10 +138,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -171,6 +171,119 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -184,121 +297,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -319,181 +319,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -526,51 +526,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -591,6 +547,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -604,147 +575,176 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1092,10 +1092,10 @@
   <dimension ref="A1:D32"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+      <selection activeCell="D2" sqref="D2:D31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="15.75" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="15" outlineLevelCol="3"/>
   <cols>
     <col min="2" max="2" width="10.2" customWidth="1"/>
     <col min="3" max="3" width="12.3" customWidth="1"/>
@@ -1183,7 +1183,7 @@
         <v>12</v>
       </c>
       <c r="D6" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1194,7 +1194,7 @@
         <v>23006</v>
       </c>
       <c r="C7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D7" t="s">
         <v>9</v>
@@ -1208,10 +1208,10 @@
         <v>23007</v>
       </c>
       <c r="C8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" s="4" t="s">
         <v>15</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1267,7 +1267,7 @@
         <v>19</v>
       </c>
       <c r="D12" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -1281,7 +1281,7 @@
         <v>20</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -1295,7 +1295,7 @@
         <v>21</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -1477,7 +1477,7 @@
         <v>34</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -1505,7 +1505,7 @@
         <v>36</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="30" spans="1:4">
